--- a/team_specific_matrix/Gonzaga_B.xlsx
+++ b/team_specific_matrix/Gonzaga_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2043010752688172</v>
+        <v>0.1964285714285714</v>
       </c>
       <c r="C2">
-        <v>0.5806451612903226</v>
+        <v>0.5848214285714286</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.005376344086021506</v>
+        <v>0.008928571428571428</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1505376344086022</v>
+        <v>0.1383928571428572</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.05913978494623656</v>
+        <v>0.07142857142857142</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,7 +557,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.02777777777777778</v>
+        <v>0.02290076335877863</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.01851851851851852</v>
+        <v>0.01526717557251908</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.75</v>
+        <v>0.7404580152671756</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.2037037037037037</v>
+        <v>0.2213740458015267</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.75</v>
+        <v>0.7741935483870968</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.25</v>
+        <v>0.2258064516129032</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.03932584269662921</v>
+        <v>0.03669724770642202</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01123595505617977</v>
+        <v>0.009174311926605505</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.07303370786516854</v>
+        <v>0.07798165137614679</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2696629213483146</v>
+        <v>0.2752293577981652</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.005617977528089887</v>
+        <v>0.004587155963302753</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1235955056179775</v>
+        <v>0.1238532110091743</v>
       </c>
       <c r="R6">
-        <v>0.06741573033707865</v>
+        <v>0.05504587155963303</v>
       </c>
       <c r="S6">
-        <v>0.4101123595505618</v>
+        <v>0.4174311926605505</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.05813953488372093</v>
+        <v>0.06701030927835051</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.01744186046511628</v>
+        <v>0.0154639175257732</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.05232558139534884</v>
+        <v>0.05670103092783505</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1511627906976744</v>
+        <v>0.1391752577319588</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.01744186046511628</v>
+        <v>0.02061855670103093</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1686046511627907</v>
+        <v>0.1907216494845361</v>
       </c>
       <c r="R7">
-        <v>0.06976744186046512</v>
+        <v>0.06185567010309279</v>
       </c>
       <c r="S7">
-        <v>0.4651162790697674</v>
+        <v>0.4484536082474227</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1012658227848101</v>
+        <v>0.09705372616984402</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01687763713080169</v>
+        <v>0.01559792027729636</v>
       </c>
       <c r="E8">
-        <v>0.002109704641350211</v>
+        <v>0.001733102253032929</v>
       </c>
       <c r="F8">
-        <v>0.05485232067510549</v>
+        <v>0.06065857885615251</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1033755274261603</v>
+        <v>0.1126516464471404</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01054852320675105</v>
+        <v>0.01039861351819757</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1413502109704641</v>
+        <v>0.1386481802426343</v>
       </c>
       <c r="R8">
-        <v>0.09915611814345991</v>
+        <v>0.09358752166377816</v>
       </c>
       <c r="S8">
-        <v>0.4704641350210971</v>
+        <v>0.4696707105719237</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.05369127516778523</v>
+        <v>0.06779661016949153</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.006711409395973154</v>
+        <v>0.005649717514124294</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.0738255033557047</v>
+        <v>0.07344632768361582</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1208053691275168</v>
+        <v>0.1016949152542373</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.006711409395973154</v>
+        <v>0.005649717514124294</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.2214765100671141</v>
+        <v>0.2146892655367232</v>
       </c>
       <c r="R9">
-        <v>0.06711409395973154</v>
+        <v>0.0903954802259887</v>
       </c>
       <c r="S9">
-        <v>0.4496644295302014</v>
+        <v>0.4406779661016949</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.08805790108564536</v>
+        <v>0.08980827447023208</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01930036188178528</v>
+        <v>0.01816347124117054</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.07961399276236429</v>
+        <v>0.07769929364278506</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1001206272617612</v>
+        <v>0.09788092835519677</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.006031363088057901</v>
+        <v>0.006054490413723511</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2050663449939686</v>
+        <v>0.2058526740665994</v>
       </c>
       <c r="R10">
-        <v>0.1001206272617612</v>
+        <v>0.09687184661957618</v>
       </c>
       <c r="S10">
-        <v>0.4016887816646562</v>
+        <v>0.4076690211907165</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1518987341772152</v>
+        <v>0.1481481481481481</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.09282700421940929</v>
+        <v>0.0962962962962963</v>
       </c>
       <c r="K11">
-        <v>0.2109704641350211</v>
+        <v>0.2148148148148148</v>
       </c>
       <c r="L11">
-        <v>0.5316455696202531</v>
+        <v>0.5222222222222223</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01265822784810127</v>
+        <v>0.01851851851851852</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7984496124031008</v>
+        <v>0.8041958041958042</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1472868217054264</v>
+        <v>0.1468531468531468</v>
       </c>
       <c r="K12">
-        <v>0.007751937984496124</v>
+        <v>0.006993006993006993</v>
       </c>
       <c r="L12">
-        <v>0.01550387596899225</v>
+        <v>0.01398601398601399</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.0310077519379845</v>
+        <v>0.02797202797202797</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.8</v>
+        <v>0.7543859649122807</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.1777777777777778</v>
+        <v>0.1929824561403509</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.02222222222222222</v>
+        <v>0.05263157894736842</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.02013422818791946</v>
+        <v>0.01648351648351648</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.2281879194630873</v>
+        <v>0.2472527472527473</v>
       </c>
       <c r="I15">
-        <v>0.08053691275167785</v>
+        <v>0.06593406593406594</v>
       </c>
       <c r="J15">
-        <v>0.3221476510067114</v>
+        <v>0.3241758241758242</v>
       </c>
       <c r="K15">
-        <v>0.05369127516778523</v>
+        <v>0.04945054945054945</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.01342281879194631</v>
+        <v>0.01098901098901099</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.05369127516778523</v>
+        <v>0.05494505494505494</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2281879194630873</v>
+        <v>0.2307692307692308</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.03225806451612903</v>
+        <v>0.03424657534246575</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.2258064516129032</v>
+        <v>0.2191780821917808</v>
       </c>
       <c r="I16">
-        <v>0.08870967741935484</v>
+        <v>0.0821917808219178</v>
       </c>
       <c r="J16">
-        <v>0.3709677419354839</v>
+        <v>0.3904109589041096</v>
       </c>
       <c r="K16">
-        <v>0.08064516129032258</v>
+        <v>0.07534246575342465</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.04032258064516129</v>
+        <v>0.03424657534246575</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.03225806451612903</v>
+        <v>0.03424657534246575</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1290322580645161</v>
+        <v>0.1301369863013699</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.009230769230769232</v>
+        <v>0.01538461538461539</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.2738461538461539</v>
+        <v>0.2564102564102564</v>
       </c>
       <c r="I17">
-        <v>0.09538461538461539</v>
+        <v>0.1</v>
       </c>
       <c r="J17">
-        <v>0.32</v>
+        <v>0.3256410256410256</v>
       </c>
       <c r="K17">
-        <v>0.1046153846153846</v>
+        <v>0.09743589743589744</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.02153846153846154</v>
+        <v>0.02564102564102564</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.07076923076923076</v>
+        <v>0.07179487179487179</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1046153846153846</v>
+        <v>0.1076923076923077</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.02469135802469136</v>
+        <v>0.02127659574468085</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.228395061728395</v>
+        <v>0.2393617021276596</v>
       </c>
       <c r="I18">
-        <v>0.07407407407407407</v>
+        <v>0.07446808510638298</v>
       </c>
       <c r="J18">
-        <v>0.3395061728395062</v>
+        <v>0.324468085106383</v>
       </c>
       <c r="K18">
-        <v>0.1172839506172839</v>
+        <v>0.1170212765957447</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.01234567901234568</v>
+        <v>0.01063829787234043</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.06172839506172839</v>
+        <v>0.07446808510638298</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1419753086419753</v>
+        <v>0.1382978723404255</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.02119460500963391</v>
+        <v>0.02131018153117601</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2764932562620424</v>
+        <v>0.281767955801105</v>
       </c>
       <c r="I19">
-        <v>0.07803468208092486</v>
+        <v>0.07734806629834254</v>
       </c>
       <c r="J19">
-        <v>0.3044315992292871</v>
+        <v>0.2975532754538279</v>
       </c>
       <c r="K19">
-        <v>0.1117533718689788</v>
+        <v>0.1049723756906077</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02697495183044316</v>
+        <v>0.02920284135753749</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.06551059730250482</v>
+        <v>0.06393054459352802</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.115606936416185</v>
+        <v>0.1239147592738753</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Gonzaga_B.xlsx
+++ b/team_specific_matrix/Gonzaga_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1964285714285714</v>
+        <v>0.1950207468879668</v>
       </c>
       <c r="C2">
-        <v>0.5848214285714286</v>
+        <v>0.5767634854771784</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.008928571428571428</v>
+        <v>0.01244813278008299</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1383928571428572</v>
+        <v>0.1410788381742739</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.07142857142857142</v>
+        <v>0.07468879668049792</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,7 +557,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.02290076335877863</v>
+        <v>0.02877697841726619</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.01526717557251908</v>
+        <v>0.01438848920863309</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7404580152671756</v>
+        <v>0.7266187050359713</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.2213740458015267</v>
+        <v>0.2302158273381295</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.03669724770642202</v>
+        <v>0.03333333333333333</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.009174311926605505</v>
+        <v>0.008333333333333333</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.07798165137614679</v>
+        <v>0.075</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2752293577981652</v>
+        <v>0.2791666666666667</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.004587155963302753</v>
+        <v>0.004166666666666667</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1238532110091743</v>
+        <v>0.1208333333333333</v>
       </c>
       <c r="R6">
-        <v>0.05504587155963303</v>
+        <v>0.05833333333333333</v>
       </c>
       <c r="S6">
-        <v>0.4174311926605505</v>
+        <v>0.4208333333333333</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.06701030927835051</v>
+        <v>0.07834101382488479</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.0154639175257732</v>
+        <v>0.01382488479262673</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.05670103092783505</v>
+        <v>0.06451612903225806</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1391752577319588</v>
+        <v>0.1290322580645161</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.02061855670103093</v>
+        <v>0.02304147465437788</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1907216494845361</v>
+        <v>0.1889400921658986</v>
       </c>
       <c r="R7">
-        <v>0.06185567010309279</v>
+        <v>0.06912442396313365</v>
       </c>
       <c r="S7">
-        <v>0.4484536082474227</v>
+        <v>0.4331797235023042</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.09705372616984402</v>
+        <v>0.09485530546623794</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01559792027729636</v>
+        <v>0.01446945337620579</v>
       </c>
       <c r="E8">
-        <v>0.001733102253032929</v>
+        <v>0.001607717041800643</v>
       </c>
       <c r="F8">
-        <v>0.06065857885615251</v>
+        <v>0.05787781350482315</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1126516464471404</v>
+        <v>0.112540192926045</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01039861351819757</v>
+        <v>0.009646302250803859</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1386481802426343</v>
+        <v>0.1446945337620579</v>
       </c>
       <c r="R8">
-        <v>0.09358752166377816</v>
+        <v>0.09646302250803858</v>
       </c>
       <c r="S8">
-        <v>0.4696707105719237</v>
+        <v>0.4678456591639871</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.06779661016949153</v>
+        <v>0.06382978723404255</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.005649717514124294</v>
+        <v>0.005319148936170213</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.07344632768361582</v>
+        <v>0.07446808510638298</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1016949152542373</v>
+        <v>0.1117021276595745</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.005649717514124294</v>
+        <v>0.01063829787234043</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.2146892655367232</v>
+        <v>0.2127659574468085</v>
       </c>
       <c r="R9">
-        <v>0.0903954802259887</v>
+        <v>0.0851063829787234</v>
       </c>
       <c r="S9">
-        <v>0.4406779661016949</v>
+        <v>0.4361702127659575</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.08980827447023208</v>
+        <v>0.08828996282527882</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01816347124117054</v>
+        <v>0.01672862453531598</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>0.0009293680297397769</v>
       </c>
       <c r="F10">
-        <v>0.07769929364278506</v>
+        <v>0.08085501858736059</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.09788092835519677</v>
+        <v>0.1003717472118959</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.006054490413723511</v>
+        <v>0.007434944237918215</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2058526740665994</v>
+        <v>0.20817843866171</v>
       </c>
       <c r="R10">
-        <v>0.09687184661957618</v>
+        <v>0.09479553903345725</v>
       </c>
       <c r="S10">
-        <v>0.4076690211907165</v>
+        <v>0.4024163568773234</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1481481481481481</v>
+        <v>0.1409395973154362</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.0962962962962963</v>
+        <v>0.1040268456375839</v>
       </c>
       <c r="K11">
-        <v>0.2148148148148148</v>
+        <v>0.2046979865771812</v>
       </c>
       <c r="L11">
-        <v>0.5222222222222223</v>
+        <v>0.5335570469798657</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01851851851851852</v>
+        <v>0.01677852348993289</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.8041958041958042</v>
+        <v>0.8136645962732919</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1468531468531468</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="K12">
-        <v>0.006993006993006993</v>
+        <v>0.006211180124223602</v>
       </c>
       <c r="L12">
-        <v>0.01398601398601399</v>
+        <v>0.0124223602484472</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.02797202797202797</v>
+        <v>0.02484472049689441</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.7543859649122807</v>
+        <v>0.75</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.1929824561403509</v>
+        <v>0.1875</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.05263157894736842</v>
+        <v>0.0625</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.01648351648351648</v>
+        <v>0.02030456852791878</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.2472527472527473</v>
+        <v>0.2436548223350254</v>
       </c>
       <c r="I15">
-        <v>0.06593406593406594</v>
+        <v>0.07106598984771574</v>
       </c>
       <c r="J15">
-        <v>0.3241758241758242</v>
+        <v>0.3197969543147208</v>
       </c>
       <c r="K15">
-        <v>0.04945054945054945</v>
+        <v>0.05076142131979695</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.01098901098901099</v>
+        <v>0.01015228426395939</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.05494505494505494</v>
+        <v>0.05076142131979695</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2307692307692308</v>
+        <v>0.233502538071066</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.03424657534246575</v>
+        <v>0.03267973856209151</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.2191780821917808</v>
+        <v>0.2091503267973856</v>
       </c>
       <c r="I16">
-        <v>0.0821917808219178</v>
+        <v>0.08496732026143791</v>
       </c>
       <c r="J16">
-        <v>0.3904109589041096</v>
+        <v>0.3986928104575164</v>
       </c>
       <c r="K16">
-        <v>0.07534246575342465</v>
+        <v>0.0718954248366013</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.03424657534246575</v>
+        <v>0.03267973856209151</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.03424657534246575</v>
+        <v>0.0392156862745098</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1301369863013699</v>
+        <v>0.130718954248366</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01538461538461539</v>
+        <v>0.01401869158878505</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.2564102564102564</v>
+        <v>0.2593457943925234</v>
       </c>
       <c r="I17">
-        <v>0.1</v>
+        <v>0.09345794392523364</v>
       </c>
       <c r="J17">
-        <v>0.3256410256410256</v>
+        <v>0.3294392523364486</v>
       </c>
       <c r="K17">
-        <v>0.09743589743589744</v>
+        <v>0.102803738317757</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.02564102564102564</v>
+        <v>0.02803738317757009</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.07179487179487179</v>
+        <v>0.06775700934579439</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1076923076923077</v>
+        <v>0.1051401869158878</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.02127659574468085</v>
+        <v>0.02439024390243903</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.2393617021276596</v>
+        <v>0.2341463414634146</v>
       </c>
       <c r="I18">
-        <v>0.07446808510638298</v>
+        <v>0.07317073170731707</v>
       </c>
       <c r="J18">
-        <v>0.324468085106383</v>
+        <v>0.3268292682926829</v>
       </c>
       <c r="K18">
-        <v>0.1170212765957447</v>
+        <v>0.1219512195121951</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.01063829787234043</v>
+        <v>0.01951219512195122</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.07446808510638298</v>
+        <v>0.06829268292682927</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1382978723404255</v>
+        <v>0.1317073170731707</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.02131018153117601</v>
+        <v>0.02135493372606775</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.281767955801105</v>
+        <v>0.2842415316642121</v>
       </c>
       <c r="I19">
-        <v>0.07734806629834254</v>
+        <v>0.07658321060382917</v>
       </c>
       <c r="J19">
-        <v>0.2975532754538279</v>
+        <v>0.2938144329896907</v>
       </c>
       <c r="K19">
-        <v>0.1049723756906077</v>
+        <v>0.1082474226804124</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02920284135753749</v>
+        <v>0.02945508100147275</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.06393054459352802</v>
+        <v>0.06553755522827688</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1239147592738753</v>
+        <v>0.1207658321060383</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Gonzaga_B.xlsx
+++ b/team_specific_matrix/Gonzaga_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1950207468879668</v>
+        <v>0.1951219512195122</v>
       </c>
       <c r="C2">
-        <v>0.5767634854771784</v>
+        <v>0.573170731707317</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01244813278008299</v>
+        <v>0.01219512195121951</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1410788381742739</v>
+        <v>0.1422764227642276</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.07468879668049792</v>
+        <v>0.07723577235772358</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,7 +557,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.02877697841726619</v>
+        <v>0.02836879432624113</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.01438848920863309</v>
+        <v>0.01418439716312057</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7266187050359713</v>
+        <v>0.723404255319149</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.2302158273381295</v>
+        <v>0.2340425531914894</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.7741935483870968</v>
+        <v>0.7575757575757576</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.2258064516129032</v>
+        <v>0.2424242424242424</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.03333333333333333</v>
+        <v>0.03238866396761134</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.008333333333333333</v>
+        <v>0.008097165991902834</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.075</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2791666666666667</v>
+        <v>0.2793522267206478</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.004166666666666667</v>
+        <v>0.004048582995951417</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1208333333333333</v>
+        <v>0.1214574898785425</v>
       </c>
       <c r="R6">
-        <v>0.05833333333333333</v>
+        <v>0.05668016194331984</v>
       </c>
       <c r="S6">
-        <v>0.4208333333333333</v>
+        <v>0.4210526315789473</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.07834101382488479</v>
+        <v>0.08181818181818182</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.01382488479262673</v>
+        <v>0.01363636363636364</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.06451612903225806</v>
+        <v>0.06363636363636363</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1290322580645161</v>
+        <v>0.1318181818181818</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.02304147465437788</v>
+        <v>0.02272727272727273</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1889400921658986</v>
+        <v>0.1863636363636364</v>
       </c>
       <c r="R7">
-        <v>0.06912442396313365</v>
+        <v>0.06818181818181818</v>
       </c>
       <c r="S7">
-        <v>0.4331797235023042</v>
+        <v>0.4318181818181818</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.09485530546623794</v>
+        <v>0.09302325581395349</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01446945337620579</v>
+        <v>0.01395348837209302</v>
       </c>
       <c r="E8">
-        <v>0.001607717041800643</v>
+        <v>0.001550387596899225</v>
       </c>
       <c r="F8">
-        <v>0.05787781350482315</v>
+        <v>0.05891472868217054</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.112540192926045</v>
+        <v>0.1162790697674419</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.009646302250803859</v>
+        <v>0.009302325581395349</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1446945337620579</v>
+        <v>0.1426356589147287</v>
       </c>
       <c r="R8">
-        <v>0.09646302250803858</v>
+        <v>0.09767441860465116</v>
       </c>
       <c r="S8">
-        <v>0.4678456591639871</v>
+        <v>0.4666666666666667</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.06382978723404255</v>
+        <v>0.06217616580310881</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.005319148936170213</v>
+        <v>0.01036269430051814</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.07446808510638298</v>
+        <v>0.07772020725388601</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1117021276595745</v>
+        <v>0.1139896373056995</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.01063829787234043</v>
+        <v>0.01036269430051814</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.2127659574468085</v>
+        <v>0.2124352331606218</v>
       </c>
       <c r="R9">
-        <v>0.0851063829787234</v>
+        <v>0.08808290155440414</v>
       </c>
       <c r="S9">
-        <v>0.4361702127659575</v>
+        <v>0.4248704663212435</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.08828996282527882</v>
+        <v>0.08668453976764968</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01672862453531598</v>
+        <v>0.01697944593386953</v>
       </c>
       <c r="E10">
-        <v>0.0009293680297397769</v>
+        <v>0.0008936550491510277</v>
       </c>
       <c r="F10">
-        <v>0.08085501858736059</v>
+        <v>0.08132260947274352</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1003717472118959</v>
+        <v>0.1036639857015192</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.007434944237918215</v>
+        <v>0.008042895442359249</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.20817843866171</v>
+        <v>0.2073279714030384</v>
       </c>
       <c r="R10">
-        <v>0.09479553903345725</v>
+        <v>0.09472743521000894</v>
       </c>
       <c r="S10">
-        <v>0.4024163568773234</v>
+        <v>0.4003574620196604</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1409395973154362</v>
+        <v>0.14</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1040268456375839</v>
+        <v>0.1033333333333333</v>
       </c>
       <c r="K11">
-        <v>0.2046979865771812</v>
+        <v>0.2033333333333333</v>
       </c>
       <c r="L11">
-        <v>0.5335570469798657</v>
+        <v>0.5366666666666666</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01677852348993289</v>
+        <v>0.01666666666666667</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.8136645962732919</v>
+        <v>0.8098159509202454</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1428571428571428</v>
+        <v>0.147239263803681</v>
       </c>
       <c r="K12">
-        <v>0.006211180124223602</v>
+        <v>0.006134969325153374</v>
       </c>
       <c r="L12">
-        <v>0.0124223602484472</v>
+        <v>0.01226993865030675</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.02484472049689441</v>
+        <v>0.0245398773006135</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.75</v>
+        <v>0.7575757575757576</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.1875</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.0625</v>
+        <v>0.06060606060606061</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.02030456852791878</v>
+        <v>0.01941747572815534</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.2436548223350254</v>
+        <v>0.2427184466019418</v>
       </c>
       <c r="I15">
-        <v>0.07106598984771574</v>
+        <v>0.06796116504854369</v>
       </c>
       <c r="J15">
-        <v>0.3197969543147208</v>
+        <v>0.3349514563106796</v>
       </c>
       <c r="K15">
-        <v>0.05076142131979695</v>
+        <v>0.04854368932038835</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.01015228426395939</v>
+        <v>0.009708737864077669</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.05076142131979695</v>
+        <v>0.05339805825242718</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.233502538071066</v>
+        <v>0.2233009708737864</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.03267973856209151</v>
+        <v>0.03205128205128205</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.2091503267973856</v>
+        <v>0.2115384615384615</v>
       </c>
       <c r="I16">
-        <v>0.08496732026143791</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="J16">
-        <v>0.3986928104575164</v>
+        <v>0.4038461538461539</v>
       </c>
       <c r="K16">
-        <v>0.0718954248366013</v>
+        <v>0.07051282051282051</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.03267973856209151</v>
+        <v>0.03205128205128205</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.0392156862745098</v>
+        <v>0.03846153846153846</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.130718954248366</v>
+        <v>0.1282051282051282</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01401869158878505</v>
+        <v>0.01363636363636364</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.2593457943925234</v>
+        <v>0.2568181818181818</v>
       </c>
       <c r="I17">
-        <v>0.09345794392523364</v>
+        <v>0.09545454545454546</v>
       </c>
       <c r="J17">
-        <v>0.3294392523364486</v>
+        <v>0.3340909090909091</v>
       </c>
       <c r="K17">
-        <v>0.102803738317757</v>
+        <v>0.1</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.02803738317757009</v>
+        <v>0.02727272727272727</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.06775700934579439</v>
+        <v>0.06818181818181818</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1051401869158878</v>
+        <v>0.1045454545454545</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.02439024390243903</v>
+        <v>0.02347417840375587</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.2341463414634146</v>
+        <v>0.2394366197183098</v>
       </c>
       <c r="I18">
-        <v>0.07317073170731707</v>
+        <v>0.07042253521126761</v>
       </c>
       <c r="J18">
-        <v>0.3268292682926829</v>
+        <v>0.3286384976525822</v>
       </c>
       <c r="K18">
-        <v>0.1219512195121951</v>
+        <v>0.1173708920187793</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.01951219512195122</v>
+        <v>0.0187793427230047</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.06829268292682927</v>
+        <v>0.06572769953051644</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1317073170731707</v>
+        <v>0.136150234741784</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.02135493372606775</v>
+        <v>0.02078853046594982</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2842415316642121</v>
+        <v>0.2874551971326165</v>
       </c>
       <c r="I19">
-        <v>0.07658321060382917</v>
+        <v>0.07670250896057347</v>
       </c>
       <c r="J19">
-        <v>0.2938144329896907</v>
+        <v>0.2917562724014337</v>
       </c>
       <c r="K19">
-        <v>0.1082474226804124</v>
+        <v>0.1068100358422939</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02945508100147275</v>
+        <v>0.03010752688172043</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.06553755522827688</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1207658321060383</v>
+        <v>0.1197132616487455</v>
       </c>
     </row>
   </sheetData>
